--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,78 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>备注:道具ID拼接由2主类+2位子类+5位自增ID</t>
+  </si>
+  <si>
+    <t>item_ID</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>PROP_SCORE</t>
+  </si>
+  <si>
+    <t>道具ID_段位积分</t>
+  </si>
+  <si>
+    <t>排位赛积分</t>
+  </si>
+  <si>
+    <t>PROP_LEVEL</t>
+  </si>
+  <si>
+    <t>道具ID_段位等级</t>
+  </si>
+  <si>
+    <t>排位赛段位</t>
+  </si>
+  <si>
+    <t>PROP_SILVER</t>
+  </si>
+  <si>
+    <t>道具ID_银币</t>
+  </si>
+  <si>
+    <t>普通货币</t>
+  </si>
+  <si>
+    <t>PROP_GOLD</t>
+  </si>
+  <si>
+    <t>道具ID_金币</t>
+  </si>
+  <si>
+    <t>高级货币</t>
+  </si>
+  <si>
+    <t>PROP_EXP</t>
+  </si>
+  <si>
+    <t>道具ID_经验</t>
+  </si>
+  <si>
+    <t>玩家经验值</t>
+  </si>
+  <si>
+    <t>item_main_type</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>道具类型_普通道具</t>
+  </si>
+  <si>
+    <t>没有特殊类型的道具</t>
+  </si>
+  <si>
+    <t>item_sub_type</t>
   </si>
 </sst>
 </file>
@@ -1046,23 +1118,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1121,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" ht="99" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,6 +1222,128 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>10000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>10000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>10000003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>10000004</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11">
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>10000005</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,84 @@
   </si>
   <si>
     <t>item_sub_type</t>
+  </si>
+  <si>
+    <t>道具子类型</t>
+  </si>
+  <si>
+    <t>game_type</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>CHINESE_CHESS</t>
+  </si>
+  <si>
+    <t>中国象棋</t>
+  </si>
+  <si>
+    <t>中国象棋游戏</t>
+  </si>
+  <si>
+    <t>DIGITALBOMB</t>
+  </si>
+  <si>
+    <t>数字炸弹</t>
+  </si>
+  <si>
+    <t>数字炸弹游戏</t>
+  </si>
+  <si>
+    <t>play_type</t>
+  </si>
+  <si>
+    <t>玩法类型</t>
+  </si>
+  <si>
+    <t>CC_RANKING</t>
+  </si>
+  <si>
+    <t>中国象棋_排位赛</t>
+  </si>
+  <si>
+    <t>排位赛玩法</t>
+  </si>
+  <si>
+    <t>CC_FIVE_MINUTE</t>
+  </si>
+  <si>
+    <t>中国象棋_5分钟场</t>
+  </si>
+  <si>
+    <t>5分钟场</t>
+  </si>
+  <si>
+    <t>CC_TEN_MINUTE</t>
+  </si>
+  <si>
+    <t>中国象棋_10分钟场</t>
+  </si>
+  <si>
+    <t>10分钟场</t>
+  </si>
+  <si>
+    <t>DB_RANGE_100</t>
+  </si>
+  <si>
+    <t>数字炸弹_范围100</t>
+  </si>
+  <si>
+    <t>范围100玩法</t>
+  </si>
+  <si>
+    <t>DB_RANGE_10000</t>
+  </si>
+  <si>
+    <t>数字炸弹_范围10000</t>
+  </si>
+  <si>
+    <t>范围10000玩法</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1334,7 +1412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -1343,6 +1421,131 @@
       </c>
       <c r="D12" t="b">
         <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18">
+        <v>10002</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>10003</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>20001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>20002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -102,15 +102,6 @@
   </si>
   <si>
     <t>排位赛积分</t>
-  </si>
-  <si>
-    <t>PROP_LEVEL</t>
-  </si>
-  <si>
-    <t>道具ID_段位等级</t>
-  </si>
-  <si>
-    <t>排位赛段位</t>
   </si>
   <si>
     <t>PROP_SILVER</t>
@@ -1196,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1338,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>10000002</v>
+        <v>10000003</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -1352,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="J6">
-        <v>10000003</v>
+        <v>10000004</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
@@ -1366,79 +1357,79 @@
         <v>32</v>
       </c>
       <c r="J7">
-        <v>10000004</v>
+        <v>10000005</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="8:11">
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8">
-        <v>10000005</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="b">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="J9">
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
+    <row r="14" spans="8:11">
       <c r="H14" t="s">
         <v>46</v>
       </c>
@@ -1446,39 +1437,39 @@
         <v>47</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="8:11">
-      <c r="H15" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="I15" t="s">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H16" t="s">
         <v>51</v>
       </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
+    <row r="17" spans="8:11">
       <c r="H17" t="s">
         <v>54</v>
       </c>
@@ -1486,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="J17">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="K17" t="s">
         <v>56</v>
@@ -1500,7 +1491,7 @@
         <v>58</v>
       </c>
       <c r="J18">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
@@ -1514,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="J19">
-        <v>10003</v>
+        <v>20001</v>
       </c>
       <c r="K19" t="s">
         <v>62</v>
@@ -1528,24 +1519,10 @@
         <v>64</v>
       </c>
       <c r="J20">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="K20" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21">
-        <v>20002</v>
-      </c>
-      <c r="K21" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -93,15 +93,6 @@
   </si>
   <si>
     <t>道具ID</t>
-  </si>
-  <si>
-    <t>PROP_SCORE</t>
-  </si>
-  <si>
-    <t>道具ID_段位积分</t>
-  </si>
-  <si>
-    <t>排位赛积分</t>
   </si>
   <si>
     <t>PROP_SILVER</t>
@@ -1190,7 +1181,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1329,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>10000003</v>
+        <v>10000002</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -1343,29 +1334,15 @@
         <v>29</v>
       </c>
       <c r="J6">
-        <v>10000004</v>
+        <v>10000003</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="8:11">
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>10000005</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1374,24 +1351,24 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1400,12 +1377,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1414,38 +1391,38 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1454,75 +1431,75 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>10001</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>10002</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>10003</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>20001</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J20">
         <v>20002</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>范围10000玩法</t>
+  </si>
+  <si>
+    <t>email_type</t>
+  </si>
+  <si>
+    <t>邮件类型</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>全服邮件</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>系统邮件</t>
+  </si>
+  <si>
+    <t>FRIEND</t>
+  </si>
+  <si>
+    <t>好友邮件</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1502,6 +1526,51 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -98,7 +98,7 @@
     <t>PROP_SILVER</t>
   </si>
   <si>
-    <t>道具ID_银币</t>
+    <t>银币</t>
   </si>
   <si>
     <t>普通货币</t>
@@ -107,7 +107,7 @@
     <t>PROP_GOLD</t>
   </si>
   <si>
-    <t>道具ID_金币</t>
+    <t>金币</t>
   </si>
   <si>
     <t>高级货币</t>
@@ -116,7 +116,7 @@
     <t>PROP_EXP</t>
   </si>
   <si>
-    <t>道具ID_经验</t>
+    <t>经验</t>
   </si>
   <si>
     <t>玩家经验值</t>
@@ -131,7 +131,7 @@
     <t>PROP</t>
   </si>
   <si>
-    <t>道具类型_普通道具</t>
+    <t>普通道具</t>
   </si>
   <si>
     <t>没有特殊类型的道具</t>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>好友邮件</t>
+  </si>
+  <si>
+    <t>sys_email_id</t>
+  </si>
+  <si>
+    <t>系统邮件ID</t>
+  </si>
+  <si>
+    <t>LOGIN_REWARD</t>
+  </si>
+  <si>
+    <t>每日登录奖励</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1216,7 +1228,7 @@
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
@@ -1569,6 +1581,26 @@
       </c>
       <c r="J23">
         <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__enums__.xlsx
+++ b/data_excel/data_tables/excels/__enums__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>每日登录奖励</t>
+  </si>
+  <si>
+    <t>friend_email_id</t>
+  </si>
+  <si>
+    <t>好友邮件ID</t>
+  </si>
+  <si>
+    <t>GOLD_REWARD</t>
+  </si>
+  <si>
+    <t>好友金币赠送</t>
   </si>
 </sst>
 </file>
@@ -954,6 +966,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1603,6 +1622,26 @@
         <v>74</v>
       </c>
     </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
